--- a/biology/Médecine/Lésions_cutanées_allergiques_(maladie_professionnelle)/Lésions_cutanées_allergiques_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Lésions_cutanées_allergiques_(maladie_professionnelle)/Lésions_cutanées_allergiques_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9sions_cutan%C3%A9es_allergiques_(maladie_professionnelle)</t>
+          <t>Lésions_cutanées_allergiques_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une lésion cutanée allergique constituant un eczéma allergique peut être reconnu, en France comme maladie professionnelle, dans certaines conditions.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical. Pour la description clinique de la maladie, se reporter à l'article suivant :
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9sions_cutan%C3%A9es_allergiques_(maladie_professionnelle)</t>
+          <t>Lésions_cutanées_allergiques_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Régime agricole
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lésions_cutanées_allergiques_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9sions_cutan%C3%A9es_allergiques_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
